--- a/이미지갤러리/이미지갤러리-테이블명세(2021-07-06).xlsx
+++ b/이미지갤러리/이미지갤러리-테이블명세(2021-07-06).xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="도서정보" sheetId="3" r:id="rId1"/>
+    <sheet name="갤러리 테이블" sheetId="3" r:id="rId1"/>
     <sheet name="이미지 파일 테이블" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2103,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3139,12 +3139,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
